--- a/fjbs/部署步骤 - 同煤.xlsx
+++ b/fjbs/部署步骤 - 同煤.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cut\miao\fjbs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="7950" tabRatio="731" firstSheet="2" activeTab="4"/>
   </bookViews>
@@ -23,7 +18,7 @@
     <sheet name="雪坪" sheetId="25" r:id="rId9"/>
     <sheet name="豁口" sheetId="26" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="171">
   <si>
     <t>root</t>
   </si>
@@ -941,11 +936,35 @@
     <t>大同煤矿集团忻州同舟煤业有限公司</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>lddb_同煤到同舟业务表</t>
+  </si>
+  <si>
+    <t>s_add_同舟_11.77.32.60_lddb_ssxjxx、同煤到同舟</t>
+  </si>
+  <si>
+    <t>lddb_省到同舟基础表</t>
+  </si>
+  <si>
+    <t>s_add_同舟_11.77.32.60_lddb_bcxx、s_add_同舟_11.77.32.60_lddb_jxzyry</t>
+  </si>
+  <si>
+    <t>lddb_省到同舟支撑表</t>
+  </si>
+  <si>
+    <t>s_add_同舟_11.77.32.60_lddb</t>
+  </si>
+  <si>
+    <t>lddb_同舟到同煤业务表</t>
+  </si>
+  <si>
+    <t>同舟到同煤</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="12">
     <font>
       <sz val="11"/>
@@ -1035,7 +1054,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1063,6 +1082,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1181,7 +1206,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1276,16 +1301,52 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1301,42 +1362,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1364,6 +1389,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1672,7 +1700,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1696,7 +1724,7 @@
       <c r="A1" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C1" s="15" t="s">
@@ -1720,7 +1748,7 @@
     </row>
     <row r="2" spans="1:8" ht="14.25">
       <c r="A2" s="36"/>
-      <c r="B2" s="53"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="15" t="s">
         <v>15</v>
       </c>
@@ -1744,7 +1772,7 @@
       <c r="A3" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="34" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="19" t="s">
@@ -1768,7 +1796,7 @@
     </row>
     <row r="4" spans="1:8" ht="14.25">
       <c r="A4" s="36"/>
-      <c r="B4" s="53"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="15" t="s">
         <v>44</v>
       </c>
@@ -1792,7 +1820,7 @@
       <c r="A5" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="34" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="15" t="s">
@@ -1816,7 +1844,7 @@
     </row>
     <row r="6" spans="1:8" ht="14.25">
       <c r="A6" s="36"/>
-      <c r="B6" s="53"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="19" t="s">
         <v>31</v>
       </c>
@@ -1837,10 +1865,10 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="37" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="20" t="s">
@@ -1863,8 +1891,8 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="43"/>
-      <c r="B8" s="50"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="37"/>
       <c r="C8" s="20" t="s">
         <v>46</v>
       </c>
@@ -1885,10 +1913,10 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="40" t="s">
         <v>47</v>
       </c>
       <c r="C9" s="22" t="s">
@@ -1911,8 +1939,8 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="43"/>
-      <c r="B10" s="50"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="21" t="s">
         <v>49</v>
       </c>
@@ -1933,10 +1961,10 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="40" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="22" t="s">
@@ -1959,8 +1987,8 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="43"/>
-      <c r="B12" s="50"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="21" t="s">
         <v>52</v>
       </c>
@@ -1981,10 +2009,10 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.25">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="40" t="s">
         <v>53</v>
       </c>
       <c r="C13" s="24" t="s">
@@ -2007,8 +2035,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.25">
-      <c r="A14" s="43"/>
-      <c r="B14" s="50"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="37"/>
       <c r="C14" s="18" t="s">
         <v>55</v>
       </c>
@@ -2029,10 +2057,10 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="40" t="s">
         <v>57</v>
       </c>
       <c r="C15" s="22" t="s">
@@ -2055,8 +2083,8 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="43"/>
-      <c r="B16" s="50"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="21" t="s">
         <v>59</v>
       </c>
@@ -2077,10 +2105,10 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="14.25">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="40" t="s">
         <v>60</v>
       </c>
       <c r="C17" s="24" t="s">
@@ -2104,7 +2132,7 @@
     </row>
     <row r="18" spans="1:8" ht="14.25">
       <c r="A18" s="36"/>
-      <c r="B18" s="50"/>
+      <c r="B18" s="37"/>
       <c r="C18" s="18" t="s">
         <v>62</v>
       </c>
@@ -2173,7 +2201,7 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="43" t="s">
         <v>67</v>
       </c>
       <c r="B21" s="42" t="s">
@@ -2199,7 +2227,7 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="33"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="42"/>
       <c r="C22" s="17" t="s">
         <v>70</v>
@@ -2221,7 +2249,7 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="39" t="s">
         <v>63</v>
       </c>
       <c r="B23" s="42" t="s">
@@ -2247,7 +2275,7 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="43"/>
+      <c r="A24" s="39"/>
       <c r="B24" s="42" t="s">
         <v>73</v>
       </c>
@@ -2274,7 +2302,7 @@
       <c r="A25" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="44" t="s">
         <v>75</v>
       </c>
       <c r="C25" s="16" t="s">
@@ -2296,7 +2324,7 @@
     </row>
     <row r="26" spans="1:8" ht="14.25">
       <c r="A26" s="36"/>
-      <c r="B26" s="47"/>
+      <c r="B26" s="45"/>
       <c r="C26" s="16" t="s">
         <v>77</v>
       </c>
@@ -2315,10 +2343,10 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="48" t="s">
+      <c r="B27" s="46" t="s">
         <v>78</v>
       </c>
       <c r="C27" s="25" t="s">
@@ -2341,8 +2369,8 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="43"/>
-      <c r="B28" s="48"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="46"/>
       <c r="C28" s="25" t="s">
         <v>80</v>
       </c>
@@ -2363,7 +2391,7 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="43" t="s">
+      <c r="A29" s="39" t="s">
         <v>81</v>
       </c>
       <c r="B29" s="42" t="s">
@@ -2389,7 +2417,7 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="43"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="42"/>
       <c r="C30" s="17" t="s">
         <v>83</v>
@@ -2411,7 +2439,7 @@
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="39" t="s">
         <v>81</v>
       </c>
       <c r="B31" s="42" t="s">
@@ -2437,7 +2465,7 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="43"/>
+      <c r="A32" s="39"/>
       <c r="B32" s="42"/>
       <c r="C32" s="17" t="s">
         <v>86</v>
@@ -2459,7 +2487,7 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="43" t="s">
+      <c r="A33" s="39" t="s">
         <v>81</v>
       </c>
       <c r="B33" s="42" t="s">
@@ -2485,7 +2513,7 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="43"/>
+      <c r="A34" s="39"/>
       <c r="B34" s="42"/>
       <c r="C34" s="17" t="s">
         <v>89</v>
@@ -2507,7 +2535,7 @@
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B35" s="42" t="s">
@@ -2533,7 +2561,7 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="43"/>
+      <c r="A36" s="39"/>
       <c r="B36" s="42" t="s">
         <v>92</v>
       </c>
@@ -2557,7 +2585,7 @@
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="43" t="s">
+      <c r="A37" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B37" s="42" t="s">
@@ -2583,7 +2611,7 @@
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="43"/>
+      <c r="A38" s="39"/>
       <c r="B38" s="42" t="s">
         <v>96</v>
       </c>
@@ -2607,7 +2635,7 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="43" t="s">
+      <c r="A39" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B39" s="42" t="s">
@@ -2633,7 +2661,7 @@
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="43"/>
+      <c r="A40" s="39"/>
       <c r="B40" s="42"/>
       <c r="C40" s="17" t="s">
         <v>59</v>
@@ -2655,10 +2683,10 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="14.25">
-      <c r="A41" s="43" t="s">
+      <c r="A41" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="44" t="s">
+      <c r="B41" s="47" t="s">
         <v>98</v>
       </c>
       <c r="C41" s="18" t="s">
@@ -2681,8 +2709,8 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="14.25">
-      <c r="A42" s="43"/>
-      <c r="B42" s="45"/>
+      <c r="A42" s="39"/>
+      <c r="B42" s="48"/>
       <c r="C42" s="18" t="s">
         <v>100</v>
       </c>
@@ -2706,7 +2734,7 @@
       <c r="A43" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="B43" s="37" t="s">
+      <c r="B43" s="49" t="s">
         <v>102</v>
       </c>
       <c r="C43" s="26" t="s">
@@ -2730,7 +2758,7 @@
     </row>
     <row r="44" spans="1:8" ht="14.25">
       <c r="A44" s="55"/>
-      <c r="B44" s="38"/>
+      <c r="B44" s="50"/>
       <c r="C44" s="25" t="s">
         <v>105</v>
       </c>
@@ -2752,7 +2780,7 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="55"/>
-      <c r="B45" s="37" t="s">
+      <c r="B45" s="49" t="s">
         <v>106</v>
       </c>
       <c r="C45" s="26" t="s">
@@ -2776,7 +2804,7 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="56"/>
-      <c r="B46" s="39"/>
+      <c r="B46" s="51"/>
       <c r="C46" s="25" t="s">
         <v>109</v>
       </c>
@@ -2798,7 +2826,7 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="55"/>
-      <c r="B47" s="37" t="s">
+      <c r="B47" s="49" t="s">
         <v>110</v>
       </c>
       <c r="C47" s="26" t="s">
@@ -2822,7 +2850,7 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="57"/>
-      <c r="B48" s="38"/>
+      <c r="B48" s="50"/>
       <c r="C48" s="25" t="s">
         <v>113</v>
       </c>
@@ -2843,7 +2871,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="14.25">
-      <c r="A49" s="40" t="s">
+      <c r="A49" s="52" t="s">
         <v>114</v>
       </c>
       <c r="B49" s="35" t="s">
@@ -2869,7 +2897,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="14.25">
-      <c r="A50" s="41"/>
+      <c r="A50" s="53"/>
       <c r="B50" s="36"/>
       <c r="C50" s="30" t="s">
         <v>117</v>
@@ -2894,7 +2922,7 @@
       <c r="A51" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B51" s="34" t="s">
+      <c r="B51" s="33" t="s">
         <v>17</v>
       </c>
       <c r="C51" s="16" t="s">
@@ -2918,7 +2946,7 @@
     </row>
     <row r="52" spans="1:8" ht="14.25">
       <c r="A52" s="36"/>
-      <c r="B52" s="34"/>
+      <c r="B52" s="33"/>
       <c r="C52" s="16" t="s">
         <v>14</v>
       </c>
@@ -2942,7 +2970,7 @@
       <c r="A53" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B53" s="34" t="s">
+      <c r="B53" s="33" t="s">
         <v>23</v>
       </c>
       <c r="C53" s="31" t="s">
@@ -2966,7 +2994,7 @@
     </row>
     <row r="54" spans="1:8" ht="14.25">
       <c r="A54" s="36"/>
-      <c r="B54" s="34"/>
+      <c r="B54" s="33"/>
       <c r="C54" s="16" t="s">
         <v>22</v>
       </c>
@@ -2990,7 +3018,7 @@
       <c r="A55" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B55" s="34" t="s">
+      <c r="B55" s="33" t="s">
         <v>27</v>
       </c>
       <c r="C55" s="16" t="s">
@@ -3014,7 +3042,7 @@
     </row>
     <row r="56" spans="1:8" ht="14.25">
       <c r="A56" s="36"/>
-      <c r="B56" s="34"/>
+      <c r="B56" s="33"/>
       <c r="C56" s="31" t="s">
         <v>30</v>
       </c>
@@ -3035,10 +3063,10 @@
       </c>
     </row>
     <row r="57" spans="1:8" ht="14.25">
-      <c r="A57" s="34" t="s">
+      <c r="A57" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="B57" s="33" t="s">
+      <c r="B57" s="43" t="s">
         <v>119</v>
       </c>
       <c r="C57" s="16" t="s">
@@ -3061,8 +3089,8 @@
       </c>
     </row>
     <row r="58" spans="1:8" ht="14.25">
-      <c r="A58" s="34"/>
-      <c r="B58" s="33"/>
+      <c r="A58" s="33"/>
+      <c r="B58" s="43"/>
       <c r="C58" s="16" t="s">
         <v>121</v>
       </c>
@@ -3083,8 +3111,8 @@
       </c>
     </row>
     <row r="59" spans="1:8" ht="14.25">
-      <c r="A59" s="34"/>
-      <c r="B59" s="33" t="s">
+      <c r="A59" s="33"/>
+      <c r="B59" s="43" t="s">
         <v>122</v>
       </c>
       <c r="C59" s="16" t="s">
@@ -3107,8 +3135,8 @@
       </c>
     </row>
     <row r="60" spans="1:8" ht="14.25">
-      <c r="A60" s="34"/>
-      <c r="B60" s="33"/>
+      <c r="A60" s="33"/>
+      <c r="B60" s="43"/>
       <c r="C60" s="16" t="s">
         <v>124</v>
       </c>
@@ -3129,8 +3157,8 @@
       </c>
     </row>
     <row r="61" spans="1:8" ht="14.25">
-      <c r="A61" s="34"/>
-      <c r="B61" s="33" t="s">
+      <c r="A61" s="33"/>
+      <c r="B61" s="43" t="s">
         <v>125</v>
       </c>
       <c r="C61" s="16" t="s">
@@ -3153,8 +3181,8 @@
       </c>
     </row>
     <row r="62" spans="1:8" ht="14.25">
-      <c r="A62" s="34"/>
-      <c r="B62" s="33"/>
+      <c r="A62" s="33"/>
+      <c r="B62" s="43"/>
       <c r="C62" s="16" t="s">
         <v>127</v>
       </c>
@@ -3175,8 +3203,8 @@
       </c>
     </row>
     <row r="63" spans="1:8" ht="14.25">
-      <c r="A63" s="34"/>
-      <c r="B63" s="33" t="s">
+      <c r="A63" s="33"/>
+      <c r="B63" s="43" t="s">
         <v>128</v>
       </c>
       <c r="C63" s="16" t="s">
@@ -3199,8 +3227,8 @@
       </c>
     </row>
     <row r="64" spans="1:8" ht="14.25">
-      <c r="A64" s="34"/>
-      <c r="B64" s="33"/>
+      <c r="A64" s="33"/>
+      <c r="B64" s="43"/>
       <c r="C64" s="16" t="s">
         <v>130</v>
       </c>
@@ -3221,8 +3249,8 @@
       </c>
     </row>
     <row r="65" spans="1:8" ht="14.25">
-      <c r="A65" s="34"/>
-      <c r="B65" s="33" t="s">
+      <c r="A65" s="33"/>
+      <c r="B65" s="43" t="s">
         <v>131</v>
       </c>
       <c r="C65" s="16" t="s">
@@ -3245,8 +3273,8 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="14.25">
-      <c r="A66" s="34"/>
-      <c r="B66" s="33"/>
+      <c r="A66" s="33"/>
+      <c r="B66" s="43"/>
       <c r="C66" s="16" t="s">
         <v>133</v>
       </c>
@@ -3268,6 +3296,50 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A43:A48"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
     <mergeCell ref="A57:A66"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A3:A4"/>
@@ -3284,50 +3356,6 @@
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A43:A48"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B65:B66"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3335,7 +3363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -3647,7 +3675,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I34"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
@@ -4010,7 +4038,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="0" tint="-0.499984740745262"/>
   </sheetPr>
@@ -4365,7 +4393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -4689,11 +4717,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4729,7 +4757,7 @@
       <c r="B3" s="61" t="s">
         <v>162</v>
       </c>
-      <c r="C3" s="7" t="str">
+      <c r="C3" s="63" t="str">
         <f>B14&amp;B6&amp;"_"&amp;B2&amp;".ddgl"</f>
         <v>同煤同舟_11.77.32.52.ddgl</v>
       </c>
@@ -4873,8 +4901,11 @@
       <c r="D15" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="G15" t="s">
+        <v>163</v>
+      </c>
       <c r="H15" s="4" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="2:9">
@@ -4886,14 +4917,20 @@
         <v>COMPANY_CODE='1072'</v>
       </c>
       <c r="D16" s="5"/>
+      <c r="G16" t="s">
+        <v>165</v>
+      </c>
       <c r="H16" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="2:8">
       <c r="D17" s="5"/>
+      <c r="G17" t="s">
+        <v>167</v>
+      </c>
       <c r="H17" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="2:8">
@@ -4906,8 +4943,11 @@
         <v>同煤到同舟</v>
       </c>
       <c r="D18" s="5"/>
+      <c r="G18" t="s">
+        <v>169</v>
+      </c>
       <c r="H18" s="4" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="2:8">
@@ -5010,11 +5050,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5331,7 +5371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -5643,7 +5683,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -5955,7 +5995,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
